--- a/DragPrediction/NL2VP DragX/1L/n/6/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1L/n/6/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>9.4243321399500007E-2</v>
+        <v>0.24231230100000004</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E198)</f>
-        <v>5.0454288069082969</v>
+        <v>12.972478532999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E59" si="0">A3*$E$1</f>
-        <v>0.87953094718342573</v>
+        <v>2.261392791</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.661385271323554E-2</v>
+        <v>0.24840725700000002</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.82620808173295046</v>
+        <v>2.1242925060000002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.9100788650392568E-2</v>
+        <v>0.25480150499999998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.74310815075749581</v>
+        <v>1.9106313660000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.10733343458376446</v>
+        <v>0.27596874900000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.41160865146898762</v>
+        <v>1.0583014050000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.10498852502863637</v>
+        <v>0.26993967000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.10898829635511571</v>
+        <v>0.28022362200000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>7.3281651841326456E-2</v>
+        <v>0.18841701900000002</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.32355488373999175</v>
+        <v>0.83190328199999997</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>7.5293143662991738E-2</v>
+        <v>0.19358883599999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.29085335215772729</v>
+        <v>0.74782323000000006</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>7.502915052250414E-2</v>
+        <v>0.19291007400000001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.19332944104177688</v>
+        <v>0.49707609000000008</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.10561514323723141</v>
+        <v>0.27155078999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.12450261831488429</v>
+        <v>0.32011303800000002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.13001511068429752</v>
+        <v>0.33428640000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-9.0135827607520664E-3</v>
+        <v>-2.3175138000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5.2347425416376041E-2</v>
+        <v>0.13459229700000003</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-5.3236256228838846E-2</v>
+        <v>-0.13687760100000002</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5.5028725711066116E-2</v>
+        <v>0.14148628199999999</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-4.6398399373933884E-2</v>
+        <v>-0.119296548</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>6.2045771524239672E-2</v>
+        <v>0.15952805400000003</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-5.8004761989533062E-2</v>
+        <v>-0.14913807300000001</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>6.173960090161984E-2</v>
+        <v>0.15874084800000002</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-0.10928269746732645</v>
+        <v>-0.28098056700000001</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>6.9171960965169421E-2</v>
+        <v>0.17785044899999999</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-0.19017706629715289</v>
+        <v>-0.48897090900000001</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>5.7252607781640499E-2</v>
+        <v>0.14720418300000002</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>0.24543658385806613</v>
+        <v>0.63105058800000002</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>6.0907028512264462E-2</v>
+        <v>0.156600192</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.20233100926414466</v>
+        <v>0.52022033700000003</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>6.0583371059814053E-2</v>
+        <v>0.155768025</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>0.20359040405111156</v>
+        <v>0.52345841100000001</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>4.102836626930579E-2</v>
+        <v>0.105489468</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.10161245607784711</v>
+        <v>0.26125934099999998</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>4.6966684589231401E-2</v>
+        <v>0.120757686</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>1.8780969584429753E-2</v>
+        <v>4.8288408000000005E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>5.7460179147037188E-2</v>
+        <v>0.14773787700000002</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-1.4478180328611572E-2</v>
+        <v>-3.7225356000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>5.7047715388772728E-2</v>
+        <v>0.14667737700000003</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-2.1846718772219009E-2</v>
+        <v>-5.6170863000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>5.4567501385735538E-2</v>
+        <v>0.14030041200000001</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-4.0999305951446283E-2</v>
+        <v>-0.10541475000000002</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>5.0105109074466941E-2</v>
+        <v>0.128826999</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-8.0733654980888428E-2</v>
+        <v>-0.207577125</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>2.9274839851797522E-2</v>
+        <v>7.5269564999999997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-0.32321011304367769</v>
+        <v>-0.83101683000000004</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>5.8379581283206618E-2</v>
+        <v>0.15010178400000002</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-0.15969411601359917</v>
+        <v>-0.410595129</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>4.6889623291028928E-2</v>
+        <v>0.120559551</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-0.16837440355487604</v>
+        <v>-0.43291332000000005</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>3.2954718989045458E-2</v>
+        <v>8.4731031000000012E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-0.14321290549606613</v>
+        <v>-0.36821971200000003</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>2.388023860885537E-2</v>
+        <v>6.1399317000000002E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,10 +1418,11 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-0.14849004849529338</v>
+        <v>-0.38178795900000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>